--- a/data/dfz1.xlsx
+++ b/data/dfz1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tylor/OneDrive/GitHub/Tencent/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{800EC29B-5C98-614B-A998-C01345EA319B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8CB47776-BFDE-A14A-A35C-D5269A2BF003}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{800EC29B-5C98-614B-A998-C01345EA319B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{20CCF6E1-1F9B-984F-BEC1-79332C9244F8}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="20200" firstSheet="6" activeTab="15" xr2:uid="{2E4E64E3-0CE0-104F-A359-DE223BA2CDE0}"/>
+    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="20200" firstSheet="2" activeTab="3" xr2:uid="{2E4E64E3-0CE0-104F-A359-DE223BA2CDE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="15">
   <si>
     <t>题目id</t>
   </si>
@@ -1277,7 +1277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADBAAD81-49B4-0B4D-8D48-17EF124EE933}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData/>
@@ -1546,12 +1546,137 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DDF143A-B722-C14F-BB12-11DD885E3582}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/dfz1.xlsx
+++ b/data/dfz1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tylor/OneDrive/GitHub/Tencent/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{800EC29B-5C98-614B-A998-C01345EA319B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{20CCF6E1-1F9B-984F-BEC1-79332C9244F8}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{CAEAAED5-46C3-DE4D-94AF-8E906C590255}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F94045E1-6EA7-C84E-A2C6-B57023131D17}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="20200" firstSheet="2" activeTab="3" xr2:uid="{2E4E64E3-0CE0-104F-A359-DE223BA2CDE0}"/>
+    <workbookView xWindow="19180" yWindow="460" windowWidth="19200" windowHeight="20200" firstSheet="2" activeTab="5" xr2:uid="{2E4E64E3-0CE0-104F-A359-DE223BA2CDE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="17">
   <si>
     <t>题目id</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>C,D</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -1548,6 +1554,274 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DDF143A-B722-C14F-BB12-11DD885E3582}">
   <dimension ref="A1:H5"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA8DD02-7703-CD45-82ED-0150F9E4D93F}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817A0FED-03F7-E74A-834E-E684B8E053F4}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:H5"/>
     </sheetView>
@@ -1585,10 +1859,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1">
         <v>25</v>
@@ -1600,10 +1874,10 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1611,25 +1885,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1">
         <v>25</v>
       </c>
       <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1">
         <v>2</v>
-      </c>
-      <c r="F3" s="1">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1">
-        <v>11</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1637,72 +1911,54 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1">
         <v>25</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1">
         <v>25</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H5" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA8DD02-7703-CD45-82ED-0150F9E4D93F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817A0FED-03F7-E74A-834E-E684B8E053F4}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/dfz1.xlsx
+++ b/data/dfz1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tylor/OneDrive/GitHub/Tencent/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{CAEAAED5-46C3-DE4D-94AF-8E906C590255}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F94045E1-6EA7-C84E-A2C6-B57023131D17}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{CAEAAED5-46C3-DE4D-94AF-8E906C590255}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EB64C7AC-5763-B04E-A8C1-F3035C031425}"/>
   <bookViews>
-    <workbookView xWindow="19180" yWindow="460" windowWidth="19200" windowHeight="20200" firstSheet="2" activeTab="5" xr2:uid="{2E4E64E3-0CE0-104F-A359-DE223BA2CDE0}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20200" firstSheet="2" activeTab="6" xr2:uid="{2E4E64E3-0CE0-104F-A359-DE223BA2CDE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="17">
   <si>
     <t>题目id</t>
   </si>
@@ -1822,6 +1822,152 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817A0FED-03F7-E74A-834E-E684B8E053F4}">
   <dimension ref="A1:H5"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{384A9EC1-DCD8-0D41-9C39-1D4D324745B0}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:H5"/>
     </sheetView>
@@ -1859,26 +2005,18 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1">
         <v>25</v>
       </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
@@ -1888,7 +2026,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="1">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1">
         <v>25</v>
@@ -1900,10 +2038,10 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H3" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1911,25 +2049,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1">
         <v>25</v>
       </c>
       <c r="E4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
         <v>13</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1937,41 +2075,20 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1">
         <v>25</v>
       </c>
-      <c r="E5" s="1">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>12</v>
-      </c>
-      <c r="H5" s="1">
-        <v>2</v>
-      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{384A9EC1-DCD8-0D41-9C39-1D4D324745B0}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/dfz1.xlsx
+++ b/data/dfz1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tylor/OneDrive/GitHub/Tencent/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{CAEAAED5-46C3-DE4D-94AF-8E906C590255}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EB64C7AC-5763-B04E-A8C1-F3035C031425}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="106_{4CC8D5F6-FD2B-DB46-88BF-7710221E4952}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{34F427FA-C68F-504A-A746-327FB84C3705}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20200" firstSheet="2" activeTab="6" xr2:uid="{2E4E64E3-0CE0-104F-A359-DE223BA2CDE0}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20200" firstSheet="2" activeTab="7" xr2:uid="{2E4E64E3-0CE0-104F-A359-DE223BA2CDE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="17">
   <si>
     <t>题目id</t>
   </si>
@@ -1968,6 +1968,136 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{384A9EC1-DCD8-0D41-9C39-1D4D324745B0}">
   <dimension ref="A1:H5"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ECCF6A7-4D0D-6E41-B8F5-2AB38A08A1B7}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:H5"/>
     </sheetView>
@@ -2005,25 +2135,33 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1">
         <v>25</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1">
         <v>25</v>
@@ -2035,10 +2173,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -2067,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2075,33 +2213,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1">
         <v>25</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="E5" s="1">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ECCF6A7-4D0D-6E41-B8F5-2AB38A08A1B7}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/dfz1.xlsx
+++ b/data/dfz1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tylor/OneDrive/GitHub/Tencent/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="106_{4CC8D5F6-FD2B-DB46-88BF-7710221E4952}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{34F427FA-C68F-504A-A746-327FB84C3705}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="106_{4CC8D5F6-FD2B-DB46-88BF-7710221E4952}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{930BF2E4-4D98-ED4B-97F1-B3DE64783AD3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20200" firstSheet="2" activeTab="7" xr2:uid="{2E4E64E3-0CE0-104F-A359-DE223BA2CDE0}"/>
+    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="20200" firstSheet="2" activeTab="9" xr2:uid="{2E4E64E3-0CE0-104F-A359-DE223BA2CDE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="18">
   <si>
     <t>题目id</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>A,D</t>
   </si>
 </sst>
 </file>
@@ -1203,12 +1206,171 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36519315-6EF7-D34C-B798-ADB36ACB0447}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2098,7 +2260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ECCF6A7-4D0D-6E41-B8F5-2AB38A08A1B7}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:H5"/>
     </sheetView>
   </sheetViews>
@@ -2242,12 +2404,129 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4337C75-AA6C-B64B-BA4A-D4A26F33F5DD}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/dfz1.xlsx
+++ b/data/dfz1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tylor/OneDrive/GitHub/Tencent/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="106_{4CC8D5F6-FD2B-DB46-88BF-7710221E4952}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{930BF2E4-4D98-ED4B-97F1-B3DE64783AD3}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="106_{4CC8D5F6-FD2B-DB46-88BF-7710221E4952}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D4386F59-3EC3-404F-BB38-F0278D91E2DF}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="20200" firstSheet="2" activeTab="9" xr2:uid="{2E4E64E3-0CE0-104F-A359-DE223BA2CDE0}"/>
+    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="20180" firstSheet="2" activeTab="10" xr2:uid="{2E4E64E3-0CE0-104F-A359-DE223BA2CDE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="19">
   <si>
     <t>题目id</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>A,D</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36519315-6EF7-D34C-B798-ADB36ACB0447}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:H6"/>
     </sheetView>
   </sheetViews>
@@ -1378,12 +1381,111 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937AFAAA-83F6-3D4E-8472-179F8F0614B7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>33</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1">
+        <v>33</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
